--- a/_book/data/energiereep.xlsx
+++ b/_book/data/energiereep.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FA02B6-764B-4788-BAA8-7CBAA5E6DD58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2717BA78-A73E-4D73-8C2B-69A34E0A91AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAB1CBEE-B6C7-48D7-9343-6FFEB26089D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energiereep" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,13 +96,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E4D9197-31C0-4A80-B791-1E856187F0DD}" name="tbEnergiereep" displayName="tbEnergiereep" ref="A1:D35" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E4D9197-31C0-4A80-B791-1E856187F0DD}" name="TabelEnergierepen" displayName="TabelEnergierepen" ref="A1:D35" totalsRowShown="0">
   <autoFilter ref="A1:D35" xr:uid="{BAA38B1C-6E03-4362-ADC2-1BB6C4E256CF}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1F381739-D7C6-42B4-81EA-E1DEB9241E3B}" name="winkelnr"/>
-    <tableColumn id="2" xr3:uid="{FB14EC80-164E-4D74-8512-51B28E30C88C}" name="omzet"/>
     <tableColumn id="3" xr3:uid="{95E18BF4-327C-4FB6-92EC-7F24E7C48F45}" name="prijs"/>
     <tableColumn id="4" xr3:uid="{5AE42BC3-8BA6-40DE-B577-4922FBFB7DF7}" name="promotiekosten"/>
+    <tableColumn id="2" xr3:uid="{FB14EC80-164E-4D74-8512-51B28E30C88C}" name="omzet"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -413,15 +408,16 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -429,13 +425,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,13 +439,13 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
         <v>4141</v>
-      </c>
-      <c r="C2">
-        <v>59</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -457,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
         <v>3842</v>
-      </c>
-      <c r="C3">
-        <v>59</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
         <v>3056</v>
-      </c>
-      <c r="C4">
-        <v>59</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
         <v>3519</v>
-      </c>
-      <c r="C5">
-        <v>59</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,13 +495,13 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
         <v>4226</v>
-      </c>
-      <c r="C6">
-        <v>59</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
         <v>4630</v>
-      </c>
-      <c r="C7">
-        <v>59</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,13 +523,13 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
         <v>3507</v>
-      </c>
-      <c r="C8">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,13 +537,13 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
         <v>3754</v>
-      </c>
-      <c r="C9">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,13 +551,13 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>600</v>
+      </c>
+      <c r="D10">
         <v>5000</v>
-      </c>
-      <c r="C10">
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,13 +565,13 @@
         <v>10</v>
       </c>
       <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11">
         <v>5120</v>
-      </c>
-      <c r="C11">
-        <v>59</v>
-      </c>
-      <c r="D11">
-        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,13 +579,13 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+      <c r="D12">
         <v>4011</v>
-      </c>
-      <c r="C12">
-        <v>59</v>
-      </c>
-      <c r="D12">
-        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,13 +593,13 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
+      </c>
+      <c r="D13">
         <v>5015</v>
-      </c>
-      <c r="C13">
-        <v>59</v>
-      </c>
-      <c r="D13">
-        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,13 +607,13 @@
         <v>13</v>
       </c>
       <c r="B14">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
         <v>1916</v>
-      </c>
-      <c r="C14">
-        <v>79</v>
-      </c>
-      <c r="D14">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,13 +621,13 @@
         <v>14</v>
       </c>
       <c r="B15">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
         <v>675</v>
-      </c>
-      <c r="C15">
-        <v>79</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,13 +635,13 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
         <v>3636</v>
-      </c>
-      <c r="C16">
-        <v>79</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,13 +649,13 @@
         <v>16</v>
       </c>
       <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
         <v>3224</v>
-      </c>
-      <c r="C17">
-        <v>79</v>
-      </c>
-      <c r="D17">
-        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,13 +663,13 @@
         <v>17</v>
       </c>
       <c r="B18">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
         <v>2295</v>
-      </c>
-      <c r="C18">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +677,13 @@
         <v>18</v>
       </c>
       <c r="B19">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
         <v>2730</v>
-      </c>
-      <c r="C19">
-        <v>79</v>
-      </c>
-      <c r="D19">
-        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +691,13 @@
         <v>19</v>
       </c>
       <c r="B20">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20">
         <v>2618</v>
-      </c>
-      <c r="C20">
-        <v>79</v>
-      </c>
-      <c r="D20">
-        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +705,13 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="D21">
         <v>4421</v>
-      </c>
-      <c r="C21">
-        <v>79</v>
-      </c>
-      <c r="D21">
-        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,13 +719,13 @@
         <v>21</v>
       </c>
       <c r="B22">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>600</v>
+      </c>
+      <c r="D22">
         <v>4113</v>
-      </c>
-      <c r="C22">
-        <v>79</v>
-      </c>
-      <c r="D22">
-        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +733,13 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23">
         <v>3746</v>
-      </c>
-      <c r="C23">
-        <v>79</v>
-      </c>
-      <c r="D23">
-        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,13 +747,13 @@
         <v>23</v>
       </c>
       <c r="B24">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>600</v>
+      </c>
+      <c r="D24">
         <v>3532</v>
-      </c>
-      <c r="C24">
-        <v>79</v>
-      </c>
-      <c r="D24">
-        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,13 +761,13 @@
         <v>24</v>
       </c>
       <c r="B25">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>600</v>
+      </c>
+      <c r="D25">
         <v>3825</v>
-      </c>
-      <c r="C25">
-        <v>79</v>
-      </c>
-      <c r="D25">
-        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +775,13 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
         <v>1096</v>
-      </c>
-      <c r="C26">
-        <v>99</v>
-      </c>
-      <c r="D26">
-        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,13 +789,13 @@
         <v>26</v>
       </c>
       <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
         <v>761</v>
-      </c>
-      <c r="C27">
-        <v>99</v>
-      </c>
-      <c r="D27">
-        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,13 +803,13 @@
         <v>27</v>
       </c>
       <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
         <v>2088</v>
-      </c>
-      <c r="C28">
-        <v>99</v>
-      </c>
-      <c r="D28">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,13 +817,13 @@
         <v>28</v>
       </c>
       <c r="B29">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
         <v>820</v>
-      </c>
-      <c r="C29">
-        <v>99</v>
-      </c>
-      <c r="D29">
-        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,13 +831,13 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <v>99</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30">
         <v>2114</v>
-      </c>
-      <c r="C30">
-        <v>99</v>
-      </c>
-      <c r="D30">
-        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,13 +845,13 @@
         <v>30</v>
       </c>
       <c r="B31">
+        <v>99</v>
+      </c>
+      <c r="C31">
+        <v>400</v>
+      </c>
+      <c r="D31">
         <v>1882</v>
-      </c>
-      <c r="C31">
-        <v>99</v>
-      </c>
-      <c r="D31">
-        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,13 +859,13 @@
         <v>31</v>
       </c>
       <c r="B32">
+        <v>99</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="D32">
         <v>2159</v>
-      </c>
-      <c r="C32">
-        <v>99</v>
-      </c>
-      <c r="D32">
-        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,13 +873,13 @@
         <v>32</v>
       </c>
       <c r="B33">
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <v>400</v>
+      </c>
+      <c r="D33">
         <v>1602</v>
-      </c>
-      <c r="C33">
-        <v>99</v>
-      </c>
-      <c r="D33">
-        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,13 +887,13 @@
         <v>33</v>
       </c>
       <c r="B34">
+        <v>99</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+      <c r="D34">
         <v>3354</v>
-      </c>
-      <c r="C34">
-        <v>99</v>
-      </c>
-      <c r="D34">
-        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,19 +901,20 @@
         <v>34</v>
       </c>
       <c r="B35">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+      <c r="D35">
         <v>2927</v>
-      </c>
-      <c r="C35">
-        <v>99</v>
-      </c>
-      <c r="D35">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>